--- a/Team-Data/2013-14/12-29-2013-14.xlsx
+++ b/Team-Data/2013-14/12-29-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,22 +733,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>0.548</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>48.8</v>
       </c>
       <c r="I2" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
         <v>83.3</v>
@@ -690,34 +757,34 @@
         <v>0.468</v>
       </c>
       <c r="L2" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="N2" t="n">
         <v>0.383</v>
       </c>
       <c r="O2" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P2" t="n">
         <v>21.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.756</v>
+        <v>0.758</v>
       </c>
       <c r="R2" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S2" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="T2" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U2" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="V2" t="n">
         <v>15.2</v>
@@ -729,46 +796,46 @@
         <v>4.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
         <v>6</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AK2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="n">
         <v>6</v>
@@ -777,13 +844,13 @@
         <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>20</v>
       </c>
       <c r="AQ2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -804,19 +871,19 @@
         <v>10</v>
       </c>
       <c r="AX2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
         <v>23</v>
       </c>
       <c r="BB2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>16</v>
@@ -968,7 +1035,7 @@
         <v>13</v>
       </c>
       <c r="AR3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS3" t="n">
         <v>18</v>
@@ -986,13 +1053,13 @@
         <v>27</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY3" t="n">
         <v>11</v>
       </c>
       <c r="AZ3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
         <v>29</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-5.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1135,10 +1202,10 @@
         <v>16</v>
       </c>
       <c r="AM4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
         <v>5</v>
@@ -1147,10 +1214,10 @@
         <v>4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS4" t="n">
         <v>22</v>
@@ -1162,7 +1229,7 @@
         <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
@@ -1308,7 +1375,7 @@
         <v>27</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>22</v>
@@ -1514,10 +1581,10 @@
         <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
         <v>8</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -1576,52 +1643,52 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" t="n">
-        <v>0.333</v>
+        <v>0.345</v>
       </c>
       <c r="H7" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="I7" t="n">
         <v>36.8</v>
       </c>
       <c r="J7" t="n">
-        <v>85.90000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.428</v>
+        <v>0.429</v>
       </c>
       <c r="L7" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M7" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.363</v>
+        <v>0.356</v>
       </c>
       <c r="O7" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P7" t="n">
         <v>21.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.754</v>
+        <v>0.751</v>
       </c>
       <c r="R7" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S7" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T7" t="n">
         <v>43.5</v>
@@ -1636,25 +1703,25 @@
         <v>7.3</v>
       </c>
       <c r="X7" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z7" t="n">
         <v>19.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.6</v>
+        <v>19.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="AC7" t="n">
         <v>-5.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
@@ -1666,25 +1733,25 @@
         <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI7" t="n">
         <v>20</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
         <v>20</v>
       </c>
       <c r="AM7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="n">
         <v>21</v>
@@ -1696,7 +1763,7 @@
         <v>20</v>
       </c>
       <c r="AR7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS7" t="n">
         <v>17</v>
@@ -1714,16 +1781,16 @@
         <v>20</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
@@ -1869,7 +1936,7 @@
         <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP8" t="n">
         <v>27</v>
@@ -1878,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="AR8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS8" t="n">
         <v>22</v>
@@ -1890,7 +1957,7 @@
         <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
@@ -1902,10 +1969,10 @@
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BB8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-1</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2039,7 +2106,7 @@
         <v>8</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
         <v>19</v>
@@ -2048,13 +2115,13 @@
         <v>15</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
@@ -2078,7 +2145,7 @@
         <v>21</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
         <v>28</v>
@@ -2090,7 +2157,7 @@
         <v>9</v>
       </c>
       <c r="BB9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC9" t="n">
         <v>16</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-2.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>19</v>
@@ -2218,7 +2285,7 @@
         <v>10</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK10" t="n">
         <v>13</v>
@@ -2269,7 +2336,7 @@
         <v>12</v>
       </c>
       <c r="BA10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -2304,43 +2371,43 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.594</v>
+        <v>0.581</v>
       </c>
       <c r="H11" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J11" t="n">
-        <v>84.2</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L11" t="n">
         <v>9.5</v>
       </c>
       <c r="M11" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.399</v>
+        <v>0.403</v>
       </c>
       <c r="O11" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P11" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q11" t="n">
         <v>0.727</v>
@@ -2349,13 +2416,13 @@
         <v>11.2</v>
       </c>
       <c r="S11" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="T11" t="n">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
       <c r="U11" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="V11" t="n">
         <v>17.2</v>
@@ -2364,25 +2431,25 @@
         <v>7.8</v>
       </c>
       <c r="X11" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="AC11" t="n">
         <v>4.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,31 +2461,31 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
         <v>9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
         <v>8</v>
       </c>
       <c r="AL11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN11" t="n">
         <v>2</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ11" t="n">
         <v>24</v>
@@ -2430,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
         <v>11</v>
@@ -2439,7 +2506,7 @@
         <v>29</v>
       </c>
       <c r="AW11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX11" t="n">
         <v>11</v>
@@ -2448,16 +2515,16 @@
         <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB11" t="n">
         <v>11</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" t="n">
         <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>0.636</v>
+        <v>0.656</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="J12" t="n">
-        <v>79</v>
+        <v>78.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.474</v>
+        <v>0.477</v>
       </c>
       <c r="L12" t="n">
         <v>9.199999999999999</v>
@@ -2516,67 +2583,67 @@
         <v>26.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.35</v>
       </c>
       <c r="O12" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="P12" t="n">
         <v>31.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.696</v>
+        <v>0.701</v>
       </c>
       <c r="R12" t="n">
         <v>10.8</v>
       </c>
       <c r="S12" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="T12" t="n">
-        <v>45.2</v>
+        <v>45.5</v>
       </c>
       <c r="U12" t="n">
-        <v>20.3</v>
+        <v>20.7</v>
       </c>
       <c r="V12" t="n">
-        <v>16.5</v>
+        <v>16.8</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X12" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y12" t="n">
         <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AA12" t="n">
         <v>24.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.7</v>
+        <v>106.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
       </c>
       <c r="AF12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2594,10 +2661,10 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -2612,10 +2679,10 @@
         <v>4</v>
       </c>
       <c r="AT12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV12" t="n">
         <v>28</v>
@@ -2630,16 +2697,16 @@
         <v>20</v>
       </c>
       <c r="AZ12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>9.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
         <v>1</v>
       </c>
       <c r="AG13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
         <v>24</v>
@@ -2770,7 +2837,7 @@
         <v>10</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
         <v>20</v>
@@ -2788,7 +2855,7 @@
         <v>5</v>
       </c>
       <c r="AR13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>5.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2955,7 +3022,7 @@
         <v>13</v>
       </c>
       <c r="AM14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN14" t="n">
         <v>26</v>
@@ -2970,13 +3037,13 @@
         <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS14" t="n">
         <v>13</v>
       </c>
       <c r="AT14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU14" t="n">
         <v>5</v>
@@ -2985,10 +3052,10 @@
         <v>5</v>
       </c>
       <c r="AW14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -3032,64 +3099,64 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>0.419</v>
+        <v>0.433</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="J15" t="n">
         <v>83.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.438</v>
+        <v>0.441</v>
       </c>
       <c r="L15" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M15" t="n">
-        <v>25.5</v>
+        <v>25.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.371</v>
+        <v>0.374</v>
       </c>
       <c r="O15" t="n">
-        <v>16.6</v>
+        <v>16.1</v>
       </c>
       <c r="P15" t="n">
-        <v>22.5</v>
+        <v>22.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.739</v>
+        <v>0.731</v>
       </c>
       <c r="R15" t="n">
-        <v>10.2</v>
+        <v>9.9</v>
       </c>
       <c r="S15" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T15" t="n">
-        <v>43.1</v>
+        <v>42.7</v>
       </c>
       <c r="U15" t="n">
         <v>22</v>
       </c>
       <c r="V15" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="W15" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X15" t="n">
         <v>5.9</v>
@@ -3101,85 +3168,85 @@
         <v>20.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-4.1</v>
+        <v>-4</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH15" t="n">
         <v>27</v>
       </c>
       <c r="AI15" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AJ15" t="n">
         <v>12</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AS15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT15" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AU15" t="n">
         <v>13</v>
       </c>
       <c r="AV15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW15" t="n">
         <v>25</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB15" t="n">
         <v>18</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>16</v>
@@ -3304,16 +3371,16 @@
         <v>18</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
         <v>16</v>
       </c>
       <c r="AJ16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>26</v>
@@ -3334,7 +3401,7 @@
         <v>18</v>
       </c>
       <c r="AR16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS16" t="n">
         <v>24</v>
@@ -3361,7 +3428,7 @@
         <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB16" t="n">
         <v>25</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -3474,16 +3541,16 @@
         <v>7</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF17" t="n">
         <v>4</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH17" t="n">
         <v>20</v>
@@ -3513,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3528,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI18" t="n">
         <v>28</v>
@@ -3683,13 +3750,13 @@
         <v>21</v>
       </c>
       <c r="AM18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP18" t="n">
         <v>26</v>
@@ -3698,7 +3765,7 @@
         <v>7</v>
       </c>
       <c r="AR18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS18" t="n">
         <v>26</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>4.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>12</v>
@@ -3859,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>12</v>
@@ -3868,10 +3935,10 @@
         <v>9</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3886,7 +3953,7 @@
         <v>15</v>
       </c>
       <c r="AT19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU19" t="n">
         <v>6</v>
@@ -3913,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="BC19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>0.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
         <v>16</v>
@@ -4041,10 +4108,10 @@
         <v>4</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM20" t="n">
         <v>27</v>
@@ -4056,7 +4123,7 @@
         <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>-4.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF21" t="n">
         <v>27</v>
@@ -4214,7 +4281,7 @@
         <v>27</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
         <v>25</v>
@@ -4232,16 +4299,16 @@
         <v>5</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP21" t="n">
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX21" t="n">
         <v>16</v>
@@ -4268,10 +4335,10 @@
         <v>8</v>
       </c>
       <c r="AZ21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -4306,61 +4373,61 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" t="n">
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.833</v>
+        <v>0.828</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="J22" t="n">
         <v>83.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.471</v>
+        <v>0.467</v>
       </c>
       <c r="L22" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M22" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.353</v>
+        <v>0.349</v>
       </c>
       <c r="O22" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="P22" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="R22" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="S22" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="T22" t="n">
-        <v>47.4</v>
+        <v>47.3</v>
       </c>
       <c r="U22" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="V22" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="W22" t="n">
         <v>8</v>
@@ -4372,19 +4439,19 @@
         <v>4.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.1</v>
+        <v>105.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4396,37 +4463,37 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL22" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM22" t="n">
         <v>24</v>
       </c>
       <c r="AN22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO22" t="n">
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
@@ -4453,10 +4520,10 @@
         <v>26</v>
       </c>
       <c r="BA22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -4488,154 +4555,154 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
         <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>0.333</v>
+        <v>0.31</v>
       </c>
       <c r="H23" t="n">
         <v>48.5</v>
       </c>
       <c r="I23" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J23" t="n">
-        <v>82.40000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.449</v>
+        <v>0.446</v>
       </c>
       <c r="L23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M23" t="n">
         <v>20.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O23" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P23" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R23" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="S23" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="T23" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U23" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="X23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Z23" t="n">
         <v>20.6</v>
       </c>
-      <c r="V23" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="W23" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="X23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>20.5</v>
-      </c>
       <c r="AA23" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="n">
-        <v>97.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="AC23" t="n">
-        <v>-3.1</v>
+        <v>-3.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH23" t="n">
         <v>10</v>
       </c>
       <c r="AI23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM23" t="n">
         <v>16</v>
       </c>
       <c r="AN23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO23" t="n">
         <v>24</v>
       </c>
       <c r="AP23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ23" t="n">
         <v>19</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AS23" t="n">
         <v>6</v>
       </c>
       <c r="AT23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV23" t="n">
         <v>19</v>
       </c>
-      <c r="AU23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>20</v>
-      </c>
       <c r="AW23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX23" t="n">
         <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
         <v>16</v>
       </c>
       <c r="BA23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BB23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
         <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3</v>
+        <v>0.276</v>
       </c>
       <c r="H24" t="n">
         <v>49.2</v>
@@ -4688,46 +4755,46 @@
         <v>39.5</v>
       </c>
       <c r="J24" t="n">
-        <v>89.2</v>
+        <v>89</v>
       </c>
       <c r="K24" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L24" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M24" t="n">
         <v>22.9</v>
       </c>
       <c r="N24" t="n">
-        <v>0.328</v>
+        <v>0.33</v>
       </c>
       <c r="O24" t="n">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="P24" t="n">
-        <v>22.6</v>
+        <v>22.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.715</v>
+        <v>0.71</v>
       </c>
       <c r="R24" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="S24" t="n">
         <v>33.2</v>
       </c>
       <c r="T24" t="n">
-        <v>45.3</v>
+        <v>45.1</v>
       </c>
       <c r="U24" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V24" t="n">
-        <v>17.7</v>
+        <v>18</v>
       </c>
       <c r="W24" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X24" t="n">
         <v>4.2</v>
@@ -4736,28 +4803,28 @@
         <v>6.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA24" t="n">
         <v>19.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>102.7</v>
+        <v>102.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>-8.9</v>
+        <v>-9.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF24" t="n">
         <v>27</v>
       </c>
       <c r="AG24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH24" t="n">
         <v>1</v>
@@ -4769,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="AK24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="n">
         <v>15</v>
@@ -4781,22 +4848,22 @@
         <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AP24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
       </c>
       <c r="AR24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT24" t="n">
         <v>7</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>6</v>
       </c>
       <c r="AU24" t="n">
         <v>10</v>
@@ -4805,7 +4872,7 @@
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AX24" t="n">
         <v>26</v>
@@ -4814,7 +4881,7 @@
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA24" t="n">
         <v>20</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>2.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF25" t="n">
         <v>6</v>
@@ -4960,7 +5027,7 @@
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO25" t="n">
         <v>14</v>
@@ -5002,7 +5069,7 @@
         <v>12</v>
       </c>
       <c r="BB25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -5112,10 +5179,10 @@
         <v>6</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF26" t="n">
         <v>3</v>
@@ -5124,7 +5191,7 @@
         <v>3</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5139,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="AM26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN26" t="n">
         <v>1</v>
@@ -5148,7 +5215,7 @@
         <v>10</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5160,7 +5227,7 @@
         <v>8</v>
       </c>
       <c r="AT26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU26" t="n">
         <v>4</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5181,7 +5248,7 @@
         <v>3</v>
       </c>
       <c r="BA26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
       </c>
       <c r="F27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" t="n">
-        <v>0.31</v>
+        <v>0.321</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J27" t="n">
-        <v>83.3</v>
+        <v>83</v>
       </c>
       <c r="K27" t="n">
         <v>0.443</v>
@@ -5243,94 +5310,94 @@
         <v>6.9</v>
       </c>
       <c r="M27" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.342</v>
+        <v>0.338</v>
       </c>
       <c r="O27" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="P27" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
       <c r="R27" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S27" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T27" t="n">
-        <v>42.4</v>
+        <v>42.1</v>
       </c>
       <c r="U27" t="n">
         <v>20.6</v>
       </c>
       <c r="V27" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="W27" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X27" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y27" t="n">
         <v>5.9</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="AC27" t="n">
-        <v>-3.8</v>
+        <v>-3.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF27" t="n">
         <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
         <v>9</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
         <v>7</v>
       </c>
       <c r="AP27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ27" t="n">
         <v>8</v>
@@ -5339,10 +5406,10 @@
         <v>12</v>
       </c>
       <c r="AS27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU27" t="n">
         <v>20</v>
@@ -5357,16 +5424,16 @@
         <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ27" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BA27" t="n">
         <v>5</v>
       </c>
       <c r="BB27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC27" t="n">
         <v>23</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -5398,46 +5465,46 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" t="n">
         <v>7</v>
       </c>
       <c r="G28" t="n">
-        <v>0.774</v>
+        <v>0.767</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="J28" t="n">
-        <v>84.2</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.484</v>
+        <v>0.485</v>
       </c>
       <c r="L28" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.395</v>
+        <v>0.398</v>
       </c>
       <c r="O28" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="P28" t="n">
         <v>18.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.765</v>
+        <v>0.762</v>
       </c>
       <c r="R28" t="n">
         <v>9.300000000000001</v>
@@ -5446,16 +5513,16 @@
         <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U28" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="V28" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="W28" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X28" t="n">
         <v>4.5</v>
@@ -5470,16 +5537,16 @@
         <v>18.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.8</v>
+        <v>103.6</v>
       </c>
       <c r="AC28" t="n">
         <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF28" t="n">
         <v>4</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5509,13 +5576,13 @@
         <v>3</v>
       </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP28" t="n">
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
@@ -5530,13 +5597,13 @@
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW28" t="n">
         <v>14</v>
       </c>
       <c r="AX28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5548,7 +5615,7 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>0.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
         <v>16</v>
@@ -5676,7 +5743,7 @@
         <v>24</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK29" t="n">
         <v>23</v>
@@ -5688,13 +5755,13 @@
         <v>12</v>
       </c>
       <c r="AN29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO29" t="n">
         <v>6</v>
       </c>
       <c r="AP29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ29" t="n">
         <v>6</v>
@@ -5703,7 +5770,7 @@
         <v>6</v>
       </c>
       <c r="AS29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT29" t="n">
         <v>15</v>
@@ -5712,13 +5779,13 @@
         <v>28</v>
       </c>
       <c r="AV29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW29" t="n">
         <v>23</v>
       </c>
       <c r="AX29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF30" t="n">
         <v>29</v>
@@ -5873,10 +5940,10 @@
         <v>23</v>
       </c>
       <c r="AO30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ30" t="n">
         <v>14</v>
@@ -5894,7 +5961,7 @@
         <v>24</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>22</v>
@@ -5909,7 +5976,7 @@
         <v>20</v>
       </c>
       <c r="BA30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB30" t="n">
         <v>27</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
@@ -6028,22 +6095,22 @@
         <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
         <v>14</v>
       </c>
       <c r="AH31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI31" t="n">
         <v>14</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL31" t="n">
         <v>9</v>
@@ -6058,19 +6125,19 @@
         <v>28</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS31" t="n">
         <v>19</v>
       </c>
       <c r="AT31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU31" t="n">
         <v>7</v>
@@ -6079,10 +6146,10 @@
         <v>22</v>
       </c>
       <c r="AW31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-29-2013-14</t>
+          <t>2013-12-29</t>
         </is>
       </c>
     </row>
